--- a/TestOutput/HybridResults.xlsx
+++ b/TestOutput/HybridResults.xlsx
@@ -7,216 +7,328 @@
     <workbookView activeTab="2" windowHeight="9288" windowWidth="22980" xWindow="0" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="MasterTestCases" r:id="rId2" sheetId="2"/>
-    <sheet name="ApplicationLogin" r:id="rId3" sheetId="3"/>
+    <sheet name="MasterTestCases" r:id="rId1" sheetId="2"/>
+    <sheet name="ApplicationLogin" r:id="rId2" sheetId="3"/>
+    <sheet name="Suppliers" r:id="rId3" sheetId="4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>navya</t>
-  </si>
-  <si>
-    <t>samuel</t>
-  </si>
-  <si>
-    <t>michael</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ExecutionStatus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>ApplicationLogin</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>StockItems</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>Launch URL in a browser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Wait for username</t>
+  </si>
+  <si>
+    <t>Wait for element</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>wait for password</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>wait for login button</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>click login</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>usernmae</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>btnsubmit</t>
+  </si>
+  <si>
+    <t>verify title</t>
+  </si>
+  <si>
+    <t>wait for logout</t>
+  </si>
+  <si>
+    <t>validateTitle</t>
+  </si>
+  <si>
+    <t>click logout</t>
+  </si>
+  <si>
+    <t>wait for ok button</t>
+  </si>
+  <si>
+    <t>click ok button</t>
+  </si>
+  <si>
+    <t>close browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>//a[@id='logout']</t>
+  </si>
+  <si>
+    <t>Dashboard « Stock Accounting</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>//body/div[2]/div[2]/div[1]/div[1]/ul[1]/li[3]/a[1]</t>
+  </si>
+  <si>
+    <t>Click on supplier link</t>
+  </si>
+  <si>
+    <t>Wait for add + icon button</t>
+  </si>
+  <si>
+    <t>(//span[@data-phrase='AddLink'])[1]</t>
+  </si>
+  <si>
+    <t>Click on add + icon button</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>Lg suppliers</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>x_Address</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>x_City</t>
+  </si>
+  <si>
+    <t>Kukatpally</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>x_Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>x_Contact_Person</t>
+  </si>
+  <si>
+    <t>Lg MD</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>x_Phone_Number</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>x__Email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>x_Mobile_Number</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for ok button</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//body/div[17]/div[2]/div[1]/div[4]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>click alert ok button</t>
+  </si>
+  <si>
+    <t>validate table</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>fail</t>
   </si>
   <si>
-    <t>blocked</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
-  </si>
-  <si>
-    <t>ExecutionStatus</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>ApplicationLogin</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>StockItems</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>FunctionName</t>
-  </si>
-  <si>
-    <t>LocatorType</t>
-  </si>
-  <si>
-    <t>LocatorValue</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Launch Browser</t>
-  </si>
-  <si>
-    <t>Launch URL in a browser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Wait for username</t>
-  </si>
-  <si>
-    <t>Wait for element</t>
-  </si>
-  <si>
-    <t>Enter username</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>wait for password</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>waitForElement</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>wait for login button</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>click login</t>
-  </si>
-  <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>startBrowser</t>
-  </si>
-  <si>
-    <t>openApplication</t>
-  </si>
-  <si>
-    <t>typeAction</t>
-  </si>
-  <si>
-    <t>usernmae</t>
-  </si>
-  <si>
-    <t>//input[@id='password']</t>
-  </si>
-  <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
-    <t>verify title</t>
-  </si>
-  <si>
-    <t>wait for logout</t>
-  </si>
-  <si>
-    <t>validateTitle</t>
-  </si>
-  <si>
-    <t>click logout</t>
-  </si>
-  <si>
-    <t>wait for ok button</t>
-  </si>
-  <si>
-    <t>click ok button</t>
-  </si>
-  <si>
-    <t>close browser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>//a[@id='logout']</t>
-  </si>
-  <si>
-    <t>Dashboard « Stock Accounting</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='OK!']</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -224,7 +336,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,27 +347,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -268,6 +359,27 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
@@ -450,7 +562,205 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -489,16 +799,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -533,8 +844,42 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,70 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>15487</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4598</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>187686</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,87 +1193,87 @@
   </cols>
   <sheetData>
     <row ht="21" r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="35">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="36">
-        <v>66</v>
+      <c r="D3" t="s" s="69">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="37">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="70">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="38">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="71">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="39">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="72">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -996,11 +1281,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1015,74 +1300,68 @@
   </cols>
   <sheetData>
     <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s" s="12">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1090,249 +1369,890 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="10">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="14">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s" s="16">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="18">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s" s="20">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="22">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s" s="24">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="26">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s" s="28">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="30">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s" s="32">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s" s="34">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="22.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="45.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="39.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>215637257845</v>
+      </c>
+      <c r="F23" t="s" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s" s="50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>7412589637</v>
+      </c>
+      <c r="F25" t="s" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s" s="54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s" s="68">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E24"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>